--- a/loading.xlsx
+++ b/loading.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6A294F9F-2528-4587-BAB5-4DF5F8C5C607}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB747D65-3C08-4B26-BBE3-F0024F4FF656}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -938,20 +938,20 @@
       <selection activeCell="B2" sqref="B2:B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.65" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.53125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.06640625" style="4"/>
-    <col min="4" max="4" width="9.9296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.73046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.3984375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="1.9296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="121.9296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.06640625" style="4"/>
+    <col min="1" max="1" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="4"/>
+    <col min="4" max="4" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="2" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="122" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -963,1058 +963,1058 @@
       </c>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D2" s="4" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2018-05-01</v>
+        <v>2018-09-01</v>
       </c>
       <c r="E2" s="4" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2018-05-01;2018-05-01.csv</v>
+        <v>2018-09-01;2018-09-01.csv</v>
       </c>
       <c r="F2" s="5" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/",C2,B2,"/")</f>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H2" s="5" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2018-05-01'; SET @perioddate=str_to_date('2018-05-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-09-01'; SET @perioddate=str_to_date('2018-09-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="4" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/2018-05-01;2018-05-01.csv'</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-01;2018-09-01.csv'</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2018-05-02</v>
+        <v>2018-09-02</v>
       </c>
       <c r="E3" s="4" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2018-05-02;2018-05-02.csv</v>
+        <v>2018-09-02;2018-09-02.csv</v>
       </c>
       <c r="F3" s="5" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/",C3,B3,"/")</f>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H3" s="5" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2018-05-02'; SET @perioddate=str_to_date('2018-05-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-09-02'; SET @perioddate=str_to_date('2018-09-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="4" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/2018-05-02;2018-05-02.csv'</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-02;2018-09-02.csv'</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-05-03</v>
+        <v>2018-09-03</v>
       </c>
       <c r="E4" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-05-03;2018-05-03.csv</v>
+        <v>2018-09-03;2018-09-03.csv</v>
       </c>
       <c r="F4" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H4" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-05-03'; SET @perioddate=str_to_date('2018-05-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-09-03'; SET @perioddate=str_to_date('2018-09-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/2018-05-03;2018-05-03.csv'</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-03;2018-09-03.csv'</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-05-04</v>
+        <v>2018-09-04</v>
       </c>
       <c r="E5" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-05-04;2018-05-04.csv</v>
+        <v>2018-09-04;2018-09-04.csv</v>
       </c>
       <c r="F5" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H5" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-05-04'; SET @perioddate=str_to_date('2018-05-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-09-04'; SET @perioddate=str_to_date('2018-09-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/2018-05-04;2018-05-04.csv'</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-04;2018-09-04.csv'</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-05-05</v>
+        <v>2018-09-05</v>
       </c>
       <c r="E6" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-05-05;2018-05-05.csv</v>
+        <v>2018-09-05;2018-09-05.csv</v>
       </c>
       <c r="F6" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-05-05'; SET @perioddate=str_to_date('2018-05-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-09-05'; SET @perioddate=str_to_date('2018-09-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/2018-05-05;2018-05-05.csv'</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-05;2018-09-05.csv'</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-05-06</v>
+        <v>2018-09-06</v>
       </c>
       <c r="E7" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-05-06;2018-05-06.csv</v>
+        <v>2018-09-06;2018-09-06.csv</v>
       </c>
       <c r="F7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-05-06'; SET @perioddate=str_to_date('2018-05-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-09-06'; SET @perioddate=str_to_date('2018-09-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/2018-05-06;2018-05-06.csv'</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-06;2018-09-06.csv'</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-05-07</v>
+        <v>2018-09-07</v>
       </c>
       <c r="E8" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-05-07;2018-05-07.csv</v>
+        <v>2018-09-07;2018-09-07.csv</v>
       </c>
       <c r="F8" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H8" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-05-07'; SET @perioddate=str_to_date('2018-05-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-09-07'; SET @perioddate=str_to_date('2018-09-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/2018-05-07;2018-05-07.csv'</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-07;2018-09-07.csv'</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-05-08</v>
+        <v>2018-09-08</v>
       </c>
       <c r="E9" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-05-08;2018-05-08.csv</v>
+        <v>2018-09-08;2018-09-08.csv</v>
       </c>
       <c r="F9" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H9" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-05-08'; SET @perioddate=str_to_date('2018-05-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-09-08'; SET @perioddate=str_to_date('2018-09-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/2018-05-08;2018-05-08.csv'</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-08;2018-09-08.csv'</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-05-09</v>
+        <v>2018-09-09</v>
       </c>
       <c r="E10" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-05-09;2018-05-09.csv</v>
+        <v>2018-09-09;2018-09-09.csv</v>
       </c>
       <c r="F10" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H10" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-05-09'; SET @perioddate=str_to_date('2018-05-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-09-09'; SET @perioddate=str_to_date('2018-09-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/2018-05-09;2018-05-09.csv'</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-09;2018-09-09.csv'</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-05-10</v>
+        <v>2018-09-10</v>
       </c>
       <c r="E11" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-05-10;2018-05-10.csv</v>
+        <v>2018-09-10;2018-09-10.csv</v>
       </c>
       <c r="F11" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H11" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-05-10'; SET @perioddate=str_to_date('2018-05-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-09-10'; SET @perioddate=str_to_date('2018-09-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/2018-05-10;2018-05-10.csv'</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-10;2018-09-10.csv'</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-05-11</v>
+        <v>2018-09-11</v>
       </c>
       <c r="E12" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-05-11;2018-05-11.csv</v>
+        <v>2018-09-11;2018-09-11.csv</v>
       </c>
       <c r="F12" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H12" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-05-11'; SET @perioddate=str_to_date('2018-05-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-09-11'; SET @perioddate=str_to_date('2018-09-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/2018-05-11;2018-05-11.csv'</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-11;2018-09-11.csv'</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-05-12</v>
+        <v>2018-09-12</v>
       </c>
       <c r="E13" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-05-12;2018-05-12.csv</v>
+        <v>2018-09-12;2018-09-12.csv</v>
       </c>
       <c r="F13" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H13" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-05-12'; SET @perioddate=str_to_date('2018-05-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-09-12'; SET @perioddate=str_to_date('2018-09-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/2018-05-12;2018-05-12.csv'</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-12;2018-09-12.csv'</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-05-13</v>
+        <v>2018-09-13</v>
       </c>
       <c r="E14" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-05-13;2018-05-13.csv</v>
+        <v>2018-09-13;2018-09-13.csv</v>
       </c>
       <c r="F14" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H14" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-05-13'; SET @perioddate=str_to_date('2018-05-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-09-13'; SET @perioddate=str_to_date('2018-09-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/2018-05-13;2018-05-13.csv'</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-13;2018-09-13.csv'</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-05-14</v>
+        <v>2018-09-14</v>
       </c>
       <c r="E15" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-05-14;2018-05-14.csv</v>
+        <v>2018-09-14;2018-09-14.csv</v>
       </c>
       <c r="F15" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H15" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-05-14'; SET @perioddate=str_to_date('2018-05-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-09-14'; SET @perioddate=str_to_date('2018-09-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/2018-05-14;2018-05-14.csv'</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-14;2018-09-14.csv'</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-05-15</v>
+        <v>2018-09-15</v>
       </c>
       <c r="E16" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-05-15;2018-05-15.csv</v>
+        <v>2018-09-15;2018-09-15.csv</v>
       </c>
       <c r="F16" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H16" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-05-15'; SET @perioddate=str_to_date('2018-05-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-09-15'; SET @perioddate=str_to_date('2018-09-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/2018-05-15;2018-05-15.csv'</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-15;2018-09-15.csv'</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-05-16</v>
+        <v>2018-09-16</v>
       </c>
       <c r="E17" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-05-16;2018-05-16.csv</v>
+        <v>2018-09-16;2018-09-16.csv</v>
       </c>
       <c r="F17" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H17" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-05-16'; SET @perioddate=str_to_date('2018-05-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-09-16'; SET @perioddate=str_to_date('2018-09-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/2018-05-16;2018-05-16.csv'</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-16;2018-09-16.csv'</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-05-17</v>
+        <v>2018-09-17</v>
       </c>
       <c r="E18" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-05-17;2018-05-17.csv</v>
+        <v>2018-09-17;2018-09-17.csv</v>
       </c>
       <c r="F18" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H18" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-05-17'; SET @perioddate=str_to_date('2018-05-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-09-17'; SET @perioddate=str_to_date('2018-09-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/2018-05-17;2018-05-17.csv'</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-17;2018-09-17.csv'</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-05-18</v>
+        <v>2018-09-18</v>
       </c>
       <c r="E19" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-05-18;2018-05-18.csv</v>
+        <v>2018-09-18;2018-09-18.csv</v>
       </c>
       <c r="F19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H19" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-05-18'; SET @perioddate=str_to_date('2018-05-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-09-18'; SET @perioddate=str_to_date('2018-09-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/2018-05-18;2018-05-18.csv'</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-18;2018-09-18.csv'</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-05-19</v>
+        <v>2018-09-19</v>
       </c>
       <c r="E20" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-05-19;2018-05-19.csv</v>
+        <v>2018-09-19;2018-09-19.csv</v>
       </c>
       <c r="F20" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H20" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-05-19'; SET @perioddate=str_to_date('2018-05-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-09-19'; SET @perioddate=str_to_date('2018-09-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/2018-05-19;2018-05-19.csv'</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-19;2018-09-19.csv'</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-05-20</v>
+        <v>2018-09-20</v>
       </c>
       <c r="E21" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-05-20;2018-05-20.csv</v>
+        <v>2018-09-20;2018-09-20.csv</v>
       </c>
       <c r="F21" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H21" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-05-20'; SET @perioddate=str_to_date('2018-05-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-09-20'; SET @perioddate=str_to_date('2018-09-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/2018-05-20;2018-05-20.csv'</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-20;2018-09-20.csv'</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-05-21</v>
+        <v>2018-09-21</v>
       </c>
       <c r="E22" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-05-21;2018-05-21.csv</v>
+        <v>2018-09-21;2018-09-21.csv</v>
       </c>
       <c r="F22" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H22" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-05-21'; SET @perioddate=str_to_date('2018-05-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-09-21'; SET @perioddate=str_to_date('2018-09-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/2018-05-21;2018-05-21.csv'</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-21;2018-09-21.csv'</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-05-22</v>
+        <v>2018-09-22</v>
       </c>
       <c r="E23" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-05-22;2018-05-22.csv</v>
+        <v>2018-09-22;2018-09-22.csv</v>
       </c>
       <c r="F23" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H23" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-05-22'; SET @perioddate=str_to_date('2018-05-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-09-22'; SET @perioddate=str_to_date('2018-09-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/2018-05-22;2018-05-22.csv'</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-22;2018-09-22.csv'</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-05-23</v>
+        <v>2018-09-23</v>
       </c>
       <c r="E24" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-05-23;2018-05-23.csv</v>
+        <v>2018-09-23;2018-09-23.csv</v>
       </c>
       <c r="F24" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H24" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-05-23'; SET @perioddate=str_to_date('2018-05-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-09-23'; SET @perioddate=str_to_date('2018-09-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/2018-05-23;2018-05-23.csv'</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-23;2018-09-23.csv'</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-05-24</v>
+        <v>2018-09-24</v>
       </c>
       <c r="E25" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-05-24;2018-05-24.csv</v>
+        <v>2018-09-24;2018-09-24.csv</v>
       </c>
       <c r="F25" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H25" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-05-24'; SET @perioddate=str_to_date('2018-05-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-09-24'; SET @perioddate=str_to_date('2018-09-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/2018-05-24;2018-05-24.csv'</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-24;2018-09-24.csv'</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-05-25</v>
+        <v>2018-09-25</v>
       </c>
       <c r="E26" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-05-25;2018-05-25.csv</v>
+        <v>2018-09-25;2018-09-25.csv</v>
       </c>
       <c r="F26" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H26" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-05-25'; SET @perioddate=str_to_date('2018-05-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-09-25'; SET @perioddate=str_to_date('2018-09-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/2018-05-25;2018-05-25.csv'</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-25;2018-09-25.csv'</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-05-26</v>
+        <v>2018-09-26</v>
       </c>
       <c r="E27" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-05-26;2018-05-26.csv</v>
+        <v>2018-09-26;2018-09-26.csv</v>
       </c>
       <c r="F27" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H27" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-05-26'; SET @perioddate=str_to_date('2018-05-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-09-26'; SET @perioddate=str_to_date('2018-09-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/2018-05-26;2018-05-26.csv'</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-26;2018-09-26.csv'</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-05-27</v>
+        <v>2018-09-27</v>
       </c>
       <c r="E28" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-05-27;2018-05-27.csv</v>
+        <v>2018-09-27;2018-09-27.csv</v>
       </c>
       <c r="F28" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H28" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-05-27'; SET @perioddate=str_to_date('2018-05-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-09-27'; SET @perioddate=str_to_date('2018-09-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/2018-05-27;2018-05-27.csv'</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-27;2018-09-27.csv'</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-05-28</v>
+        <v>2018-09-28</v>
       </c>
       <c r="E29" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-05-28;2018-05-28.csv</v>
+        <v>2018-09-28;2018-09-28.csv</v>
       </c>
       <c r="F29" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H29" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-05-28'; SET @perioddate=str_to_date('2018-05-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-09-28'; SET @perioddate=str_to_date('2018-09-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/2018-05-28;2018-05-28.csv'</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-28;2018-09-28.csv'</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-05-29</v>
+        <v>2018-09-29</v>
       </c>
       <c r="E30" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-05-29;2018-05-29.csv</v>
+        <v>2018-09-29;2018-09-29.csv</v>
       </c>
       <c r="F30" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H30" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-05-29'; SET @perioddate=str_to_date('2018-05-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-09-29'; SET @perioddate=str_to_date('2018-09-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/2018-05-29;2018-05-29.csv'</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-29;2018-09-29.csv'</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-05-30</v>
+        <v>2018-09-30</v>
       </c>
       <c r="E31" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-05-30;2018-05-30.csv</v>
+        <v>2018-09-30;2018-09-30.csv</v>
       </c>
       <c r="F31" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H31" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-05-30'; SET @perioddate=str_to_date('2018-05-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-09-30'; SET @perioddate=str_to_date('2018-09-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/2018-05-30;2018-05-30.csv'</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-30;2018-09-30.csv'</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-05-31</v>
+        <v>2018-09-31</v>
       </c>
       <c r="E32" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-05-31;2018-05-31.csv</v>
+        <v>2018-09-31;2018-09-31.csv</v>
       </c>
       <c r="F32" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H32" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-05-31'; SET @perioddate=str_to_date('2018-05-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-09-31'; SET @perioddate=str_to_date('2018-09-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201805/2018-05-31;2018-05-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-31;2018-09-31.csv'</v>
       </c>
     </row>
   </sheetData>
@@ -2031,15 +2031,15 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.06640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.06640625" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>118</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>119</v>
       </c>
@@ -2612,20 +2612,20 @@
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>120</v>
       </c>
       <c r="F31" s="2"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>121</v>
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="5:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>122</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="5:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>123</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="5:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>124</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="5:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>125</v>
       </c>
@@ -2705,38 +2705,38 @@
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="5:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>126</v>
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="5:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="5:13" x14ac:dyDescent="0.25">
       <c r="F38" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="5:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="5:13" x14ac:dyDescent="0.25">
       <c r="F39" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="5:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="5:13" x14ac:dyDescent="0.25">
       <c r="F40" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="41" spans="5:13" x14ac:dyDescent="0.45">
+    <row r="41" spans="5:13" x14ac:dyDescent="0.25">
       <c r="F41" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="5:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="5:13" x14ac:dyDescent="0.25">
       <c r="F42" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="43" spans="5:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="5:13" x14ac:dyDescent="0.25">
       <c r="F43" s="2" t="s">
         <v>178</v>
       </c>

--- a/loading.xlsx
+++ b/loading.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB747D65-3C08-4B26-BBE3-F0024F4FF656}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CA4D39-385F-4954-BB1E-36883E60199E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,6 +15,11 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -968,33 +973,33 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D2" s="4" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2018-09-01</v>
+        <v>2018-10-01</v>
       </c>
       <c r="E2" s="4" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2018-09-01;2018-09-01.csv</v>
+        <v>2018-10-01;2018-10-01.csv</v>
       </c>
       <c r="F2" s="5" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/",C2,B2,"/")</f>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H2" s="5" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2018-09-01'; SET @perioddate=str_to_date('2018-09-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-10-01'; SET @perioddate=str_to_date('2018-10-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="4" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-01;2018-09-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-01;2018-10-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1002,33 +1007,33 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2018-09-02</v>
+        <v>2018-10-02</v>
       </c>
       <c r="E3" s="4" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2018-09-02;2018-09-02.csv</v>
+        <v>2018-10-02;2018-10-02.csv</v>
       </c>
       <c r="F3" s="5" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/",C3,B3,"/")</f>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H3" s="5" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2018-09-02'; SET @perioddate=str_to_date('2018-09-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-10-02'; SET @perioddate=str_to_date('2018-10-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="4" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-02;2018-09-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-02;2018-10-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1036,33 +1041,33 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-09-03</v>
+        <v>2018-10-03</v>
       </c>
       <c r="E4" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-09-03;2018-09-03.csv</v>
+        <v>2018-10-03;2018-10-03.csv</v>
       </c>
       <c r="F4" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H4" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-09-03'; SET @perioddate=str_to_date('2018-09-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-10-03'; SET @perioddate=str_to_date('2018-10-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-03;2018-09-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-03;2018-10-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1070,33 +1075,33 @@
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-09-04</v>
+        <v>2018-10-04</v>
       </c>
       <c r="E5" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-09-04;2018-09-04.csv</v>
+        <v>2018-10-04;2018-10-04.csv</v>
       </c>
       <c r="F5" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H5" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-09-04'; SET @perioddate=str_to_date('2018-09-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-10-04'; SET @perioddate=str_to_date('2018-10-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-04;2018-09-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-04;2018-10-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1104,33 +1109,33 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-09-05</v>
+        <v>2018-10-05</v>
       </c>
       <c r="E6" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-09-05;2018-09-05.csv</v>
+        <v>2018-10-05;2018-10-05.csv</v>
       </c>
       <c r="F6" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-09-05'; SET @perioddate=str_to_date('2018-09-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-10-05'; SET @perioddate=str_to_date('2018-10-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-05;2018-09-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-05;2018-10-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1138,33 +1143,33 @@
         <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-09-06</v>
+        <v>2018-10-06</v>
       </c>
       <c r="E7" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-09-06;2018-09-06.csv</v>
+        <v>2018-10-06;2018-10-06.csv</v>
       </c>
       <c r="F7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-09-06'; SET @perioddate=str_to_date('2018-09-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-10-06'; SET @perioddate=str_to_date('2018-10-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-06;2018-09-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-06;2018-10-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1172,33 +1177,33 @@
         <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-09-07</v>
+        <v>2018-10-07</v>
       </c>
       <c r="E8" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-09-07;2018-09-07.csv</v>
+        <v>2018-10-07;2018-10-07.csv</v>
       </c>
       <c r="F8" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H8" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-09-07'; SET @perioddate=str_to_date('2018-09-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-10-07'; SET @perioddate=str_to_date('2018-10-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-07;2018-09-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-07;2018-10-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1206,33 +1211,33 @@
         <v>10</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-09-08</v>
+        <v>2018-10-08</v>
       </c>
       <c r="E9" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-09-08;2018-09-08.csv</v>
+        <v>2018-10-08;2018-10-08.csv</v>
       </c>
       <c r="F9" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H9" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-09-08'; SET @perioddate=str_to_date('2018-09-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-10-08'; SET @perioddate=str_to_date('2018-10-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-08;2018-09-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-08;2018-10-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1240,33 +1245,33 @@
         <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-09-09</v>
+        <v>2018-10-09</v>
       </c>
       <c r="E10" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-09-09;2018-09-09.csv</v>
+        <v>2018-10-09;2018-10-09.csv</v>
       </c>
       <c r="F10" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H10" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-09-09'; SET @perioddate=str_to_date('2018-09-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-10-09'; SET @perioddate=str_to_date('2018-10-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-09;2018-09-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-09;2018-10-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1274,33 +1279,33 @@
         <v>12</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-09-10</v>
+        <v>2018-10-10</v>
       </c>
       <c r="E11" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-09-10;2018-09-10.csv</v>
+        <v>2018-10-10;2018-10-10.csv</v>
       </c>
       <c r="F11" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H11" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-09-10'; SET @perioddate=str_to_date('2018-09-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-10-10'; SET @perioddate=str_to_date('2018-10-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-10;2018-09-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-10;2018-10-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1308,33 +1313,33 @@
         <v>13</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-09-11</v>
+        <v>2018-10-11</v>
       </c>
       <c r="E12" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-09-11;2018-09-11.csv</v>
+        <v>2018-10-11;2018-10-11.csv</v>
       </c>
       <c r="F12" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H12" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-09-11'; SET @perioddate=str_to_date('2018-09-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-10-11'; SET @perioddate=str_to_date('2018-10-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-11;2018-09-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-11;2018-10-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1342,33 +1347,33 @@
         <v>14</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-09-12</v>
+        <v>2018-10-12</v>
       </c>
       <c r="E13" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-09-12;2018-09-12.csv</v>
+        <v>2018-10-12;2018-10-12.csv</v>
       </c>
       <c r="F13" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H13" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-09-12'; SET @perioddate=str_to_date('2018-09-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-10-12'; SET @perioddate=str_to_date('2018-10-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-12;2018-09-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-12;2018-10-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1376,33 +1381,33 @@
         <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-09-13</v>
+        <v>2018-10-13</v>
       </c>
       <c r="E14" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-09-13;2018-09-13.csv</v>
+        <v>2018-10-13;2018-10-13.csv</v>
       </c>
       <c r="F14" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H14" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-09-13'; SET @perioddate=str_to_date('2018-09-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-10-13'; SET @perioddate=str_to_date('2018-10-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-13;2018-09-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-13;2018-10-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1410,33 +1415,33 @@
         <v>16</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-09-14</v>
+        <v>2018-10-14</v>
       </c>
       <c r="E15" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-09-14;2018-09-14.csv</v>
+        <v>2018-10-14;2018-10-14.csv</v>
       </c>
       <c r="F15" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H15" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-09-14'; SET @perioddate=str_to_date('2018-09-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-10-14'; SET @perioddate=str_to_date('2018-10-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-14;2018-09-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-14;2018-10-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1444,33 +1449,33 @@
         <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-09-15</v>
+        <v>2018-10-15</v>
       </c>
       <c r="E16" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-09-15;2018-09-15.csv</v>
+        <v>2018-10-15;2018-10-15.csv</v>
       </c>
       <c r="F16" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H16" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-09-15'; SET @perioddate=str_to_date('2018-09-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-10-15'; SET @perioddate=str_to_date('2018-10-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-15;2018-09-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-15;2018-10-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1478,33 +1483,33 @@
         <v>18</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-09-16</v>
+        <v>2018-10-16</v>
       </c>
       <c r="E17" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-09-16;2018-09-16.csv</v>
+        <v>2018-10-16;2018-10-16.csv</v>
       </c>
       <c r="F17" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H17" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-09-16'; SET @perioddate=str_to_date('2018-09-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-10-16'; SET @perioddate=str_to_date('2018-10-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-16;2018-09-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-16;2018-10-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1512,33 +1517,33 @@
         <v>19</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-09-17</v>
+        <v>2018-10-17</v>
       </c>
       <c r="E18" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-09-17;2018-09-17.csv</v>
+        <v>2018-10-17;2018-10-17.csv</v>
       </c>
       <c r="F18" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H18" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-09-17'; SET @perioddate=str_to_date('2018-09-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-10-17'; SET @perioddate=str_to_date('2018-10-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-17;2018-09-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-17;2018-10-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1546,33 +1551,33 @@
         <v>20</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-09-18</v>
+        <v>2018-10-18</v>
       </c>
       <c r="E19" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-09-18;2018-09-18.csv</v>
+        <v>2018-10-18;2018-10-18.csv</v>
       </c>
       <c r="F19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H19" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-09-18'; SET @perioddate=str_to_date('2018-09-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-10-18'; SET @perioddate=str_to_date('2018-10-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-18;2018-09-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-18;2018-10-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1580,33 +1585,33 @@
         <v>21</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-09-19</v>
+        <v>2018-10-19</v>
       </c>
       <c r="E20" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-09-19;2018-09-19.csv</v>
+        <v>2018-10-19;2018-10-19.csv</v>
       </c>
       <c r="F20" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H20" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-09-19'; SET @perioddate=str_to_date('2018-09-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-10-19'; SET @perioddate=str_to_date('2018-10-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-19;2018-09-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-19;2018-10-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1614,33 +1619,33 @@
         <v>22</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-09-20</v>
+        <v>2018-10-20</v>
       </c>
       <c r="E21" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-09-20;2018-09-20.csv</v>
+        <v>2018-10-20;2018-10-20.csv</v>
       </c>
       <c r="F21" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H21" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-09-20'; SET @perioddate=str_to_date('2018-09-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-10-20'; SET @perioddate=str_to_date('2018-10-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-20;2018-09-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-20;2018-10-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1648,33 +1653,33 @@
         <v>23</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-09-21</v>
+        <v>2018-10-21</v>
       </c>
       <c r="E22" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-09-21;2018-09-21.csv</v>
+        <v>2018-10-21;2018-10-21.csv</v>
       </c>
       <c r="F22" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H22" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-09-21'; SET @perioddate=str_to_date('2018-09-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-10-21'; SET @perioddate=str_to_date('2018-10-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-21;2018-09-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-21;2018-10-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1682,33 +1687,33 @@
         <v>24</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-09-22</v>
+        <v>2018-10-22</v>
       </c>
       <c r="E23" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-09-22;2018-09-22.csv</v>
+        <v>2018-10-22;2018-10-22.csv</v>
       </c>
       <c r="F23" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H23" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-09-22'; SET @perioddate=str_to_date('2018-09-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-10-22'; SET @perioddate=str_to_date('2018-10-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-22;2018-09-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-22;2018-10-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1716,33 +1721,33 @@
         <v>25</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-09-23</v>
+        <v>2018-10-23</v>
       </c>
       <c r="E24" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-09-23;2018-09-23.csv</v>
+        <v>2018-10-23;2018-10-23.csv</v>
       </c>
       <c r="F24" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H24" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-09-23'; SET @perioddate=str_to_date('2018-09-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-10-23'; SET @perioddate=str_to_date('2018-10-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-23;2018-09-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-23;2018-10-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1750,33 +1755,33 @@
         <v>26</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-09-24</v>
+        <v>2018-10-24</v>
       </c>
       <c r="E25" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-09-24;2018-09-24.csv</v>
+        <v>2018-10-24;2018-10-24.csv</v>
       </c>
       <c r="F25" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H25" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-09-24'; SET @perioddate=str_to_date('2018-09-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-10-24'; SET @perioddate=str_to_date('2018-10-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-24;2018-09-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-24;2018-10-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1784,33 +1789,33 @@
         <v>27</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-09-25</v>
+        <v>2018-10-25</v>
       </c>
       <c r="E26" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-09-25;2018-09-25.csv</v>
+        <v>2018-10-25;2018-10-25.csv</v>
       </c>
       <c r="F26" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H26" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-09-25'; SET @perioddate=str_to_date('2018-09-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-10-25'; SET @perioddate=str_to_date('2018-10-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-25;2018-09-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-25;2018-10-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1818,33 +1823,33 @@
         <v>28</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-09-26</v>
+        <v>2018-10-26</v>
       </c>
       <c r="E27" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-09-26;2018-09-26.csv</v>
+        <v>2018-10-26;2018-10-26.csv</v>
       </c>
       <c r="F27" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H27" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-09-26'; SET @perioddate=str_to_date('2018-09-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-10-26'; SET @perioddate=str_to_date('2018-10-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-26;2018-09-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-26;2018-10-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1852,33 +1857,33 @@
         <v>29</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-09-27</v>
+        <v>2018-10-27</v>
       </c>
       <c r="E28" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-09-27;2018-09-27.csv</v>
+        <v>2018-10-27;2018-10-27.csv</v>
       </c>
       <c r="F28" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H28" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-09-27'; SET @perioddate=str_to_date('2018-09-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-10-27'; SET @perioddate=str_to_date('2018-10-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-27;2018-09-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-27;2018-10-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1886,33 +1891,33 @@
         <v>30</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-09-28</v>
+        <v>2018-10-28</v>
       </c>
       <c r="E29" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-09-28;2018-09-28.csv</v>
+        <v>2018-10-28;2018-10-28.csv</v>
       </c>
       <c r="F29" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H29" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-09-28'; SET @perioddate=str_to_date('2018-09-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-10-28'; SET @perioddate=str_to_date('2018-10-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-28;2018-09-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-28;2018-10-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1920,33 +1925,33 @@
         <v>31</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-09-29</v>
+        <v>2018-10-29</v>
       </c>
       <c r="E30" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-09-29;2018-09-29.csv</v>
+        <v>2018-10-29;2018-10-29.csv</v>
       </c>
       <c r="F30" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H30" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-09-29'; SET @perioddate=str_to_date('2018-09-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-10-29'; SET @perioddate=str_to_date('2018-10-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-29;2018-09-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-29;2018-10-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1954,33 +1959,33 @@
         <v>32</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-09-30</v>
+        <v>2018-10-30</v>
       </c>
       <c r="E31" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-09-30;2018-09-30.csv</v>
+        <v>2018-10-30;2018-10-30.csv</v>
       </c>
       <c r="F31" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H31" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-09-30'; SET @perioddate=str_to_date('2018-09-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-10-30'; SET @perioddate=str_to_date('2018-10-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-30;2018-09-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-30;2018-10-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1988,33 +1993,33 @@
         <v>33</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-09-31</v>
+        <v>2018-10-31</v>
       </c>
       <c r="E32" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-09-31;2018-09-31.csv</v>
+        <v>2018-10-31;2018-10-31.csv</v>
       </c>
       <c r="F32" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H32" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-09-31'; SET @perioddate=str_to_date('2018-09-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-10-31'; SET @perioddate=str_to_date('2018-10-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201809/2018-09-31;2018-09-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-31;2018-10-31.csv'</v>
       </c>
     </row>
   </sheetData>

--- a/loading.xlsx
+++ b/loading.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CA4D39-385F-4954-BB1E-36883E60199E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FE26D1-2B5D-4954-AE81-A9DA6477ACC2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -973,33 +973,33 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D2" s="4" t="str">
         <f>CONCATENATE(C2,"-",B2,"-",A2)</f>
-        <v>2018-10-01</v>
+        <v>2018-11-01</v>
       </c>
       <c r="E2" s="4" t="str">
         <f>CONCATENATE(D2,";",D2,".csv")</f>
-        <v>2018-10-01;2018-10-01.csv</v>
+        <v>2018-11-01;2018-11-01.csv</v>
       </c>
       <c r="F2" s="5" t="str">
         <f>CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/",C2,B2,"/")</f>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H2" s="5" t="str">
         <f>CONCATENATE("SET @rundate='",D2,"'; SET @perioddate=str_to_date('",D2,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2018-10-01'; SET @perioddate=str_to_date('2018-10-01','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-11-01'; SET @perioddate=str_to_date('2018-11-01','%Y-%m-%d');</v>
       </c>
       <c r="I2" s="4" t="str">
         <f>CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F2,E2,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-01;2018-10-01.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-01;2018-11-01.csv'</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1007,33 +1007,33 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D32" si="0">CONCATENATE(C3,"-",B3,"-",A3)</f>
-        <v>2018-10-02</v>
+        <v>2018-11-02</v>
       </c>
       <c r="E3" s="4" t="str">
         <f t="shared" ref="E3:E32" si="1">CONCATENATE(D3,";",D3,".csv")</f>
-        <v>2018-10-02;2018-10-02.csv</v>
+        <v>2018-11-02;2018-11-02.csv</v>
       </c>
       <c r="F3" s="5" t="str">
         <f t="shared" ref="F3:F32" si="2">CONCATENATE("C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/",C3,B3,"/")</f>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H3" s="5" t="str">
         <f t="shared" ref="H3:H32" si="3">CONCATENATE("SET @rundate='",D3,"'; SET @perioddate=str_to_date('",D3,"','%Y-%m-%d');")</f>
-        <v>SET @rundate='2018-10-02'; SET @perioddate=str_to_date('2018-10-02','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-11-02'; SET @perioddate=str_to_date('2018-11-02','%Y-%m-%d');</v>
       </c>
       <c r="I3" s="4" t="str">
         <f t="shared" ref="I3:I32" si="4">CONCATENATE("LOAD DATA LOW_PRIORITY LOCAL INFILE '",F3,E3,"'")</f>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-02;2018-10-02.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-02;2018-11-02.csv'</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1041,33 +1041,33 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-10-03</v>
+        <v>2018-11-03</v>
       </c>
       <c r="E4" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-10-03;2018-10-03.csv</v>
+        <v>2018-11-03;2018-11-03.csv</v>
       </c>
       <c r="F4" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H4" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-10-03'; SET @perioddate=str_to_date('2018-10-03','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-11-03'; SET @perioddate=str_to_date('2018-11-03','%Y-%m-%d');</v>
       </c>
       <c r="I4" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-03;2018-10-03.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-03;2018-11-03.csv'</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1075,33 +1075,33 @@
         <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D5" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-10-04</v>
+        <v>2018-11-04</v>
       </c>
       <c r="E5" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-10-04;2018-10-04.csv</v>
+        <v>2018-11-04;2018-11-04.csv</v>
       </c>
       <c r="F5" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H5" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-10-04'; SET @perioddate=str_to_date('2018-10-04','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-11-04'; SET @perioddate=str_to_date('2018-11-04','%Y-%m-%d');</v>
       </c>
       <c r="I5" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-04;2018-10-04.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-04;2018-11-04.csv'</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1109,33 +1109,33 @@
         <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-10-05</v>
+        <v>2018-11-05</v>
       </c>
       <c r="E6" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-10-05;2018-10-05.csv</v>
+        <v>2018-11-05;2018-11-05.csv</v>
       </c>
       <c r="F6" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-10-05'; SET @perioddate=str_to_date('2018-10-05','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-11-05'; SET @perioddate=str_to_date('2018-11-05','%Y-%m-%d');</v>
       </c>
       <c r="I6" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-05;2018-10-05.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-05;2018-11-05.csv'</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1143,33 +1143,33 @@
         <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-10-06</v>
+        <v>2018-11-06</v>
       </c>
       <c r="E7" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-10-06;2018-10-06.csv</v>
+        <v>2018-11-06;2018-11-06.csv</v>
       </c>
       <c r="F7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-10-06'; SET @perioddate=str_to_date('2018-10-06','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-11-06'; SET @perioddate=str_to_date('2018-11-06','%Y-%m-%d');</v>
       </c>
       <c r="I7" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-06;2018-10-06.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-06;2018-11-06.csv'</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1177,33 +1177,33 @@
         <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-10-07</v>
+        <v>2018-11-07</v>
       </c>
       <c r="E8" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-10-07;2018-10-07.csv</v>
+        <v>2018-11-07;2018-11-07.csv</v>
       </c>
       <c r="F8" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H8" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-10-07'; SET @perioddate=str_to_date('2018-10-07','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-11-07'; SET @perioddate=str_to_date('2018-11-07','%Y-%m-%d');</v>
       </c>
       <c r="I8" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-07;2018-10-07.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-07;2018-11-07.csv'</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1211,33 +1211,33 @@
         <v>10</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-10-08</v>
+        <v>2018-11-08</v>
       </c>
       <c r="E9" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-10-08;2018-10-08.csv</v>
+        <v>2018-11-08;2018-11-08.csv</v>
       </c>
       <c r="F9" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H9" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-10-08'; SET @perioddate=str_to_date('2018-10-08','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-11-08'; SET @perioddate=str_to_date('2018-11-08','%Y-%m-%d');</v>
       </c>
       <c r="I9" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-08;2018-10-08.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-08;2018-11-08.csv'</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1245,33 +1245,33 @@
         <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-10-09</v>
+        <v>2018-11-09</v>
       </c>
       <c r="E10" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-10-09;2018-10-09.csv</v>
+        <v>2018-11-09;2018-11-09.csv</v>
       </c>
       <c r="F10" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H10" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-10-09'; SET @perioddate=str_to_date('2018-10-09','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-11-09'; SET @perioddate=str_to_date('2018-11-09','%Y-%m-%d');</v>
       </c>
       <c r="I10" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-09;2018-10-09.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-09;2018-11-09.csv'</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1279,33 +1279,33 @@
         <v>12</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-10-10</v>
+        <v>2018-11-10</v>
       </c>
       <c r="E11" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-10-10;2018-10-10.csv</v>
+        <v>2018-11-10;2018-11-10.csv</v>
       </c>
       <c r="F11" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H11" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-10-10'; SET @perioddate=str_to_date('2018-10-10','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-11-10'; SET @perioddate=str_to_date('2018-11-10','%Y-%m-%d');</v>
       </c>
       <c r="I11" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-10;2018-10-10.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-10;2018-11-10.csv'</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1313,33 +1313,33 @@
         <v>13</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-10-11</v>
+        <v>2018-11-11</v>
       </c>
       <c r="E12" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-10-11;2018-10-11.csv</v>
+        <v>2018-11-11;2018-11-11.csv</v>
       </c>
       <c r="F12" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H12" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-10-11'; SET @perioddate=str_to_date('2018-10-11','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-11-11'; SET @perioddate=str_to_date('2018-11-11','%Y-%m-%d');</v>
       </c>
       <c r="I12" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-11;2018-10-11.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-11;2018-11-11.csv'</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1347,33 +1347,33 @@
         <v>14</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-10-12</v>
+        <v>2018-11-12</v>
       </c>
       <c r="E13" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-10-12;2018-10-12.csv</v>
+        <v>2018-11-12;2018-11-12.csv</v>
       </c>
       <c r="F13" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H13" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-10-12'; SET @perioddate=str_to_date('2018-10-12','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-11-12'; SET @perioddate=str_to_date('2018-11-12','%Y-%m-%d');</v>
       </c>
       <c r="I13" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-12;2018-10-12.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-12;2018-11-12.csv'</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1381,33 +1381,33 @@
         <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-10-13</v>
+        <v>2018-11-13</v>
       </c>
       <c r="E14" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-10-13;2018-10-13.csv</v>
+        <v>2018-11-13;2018-11-13.csv</v>
       </c>
       <c r="F14" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H14" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-10-13'; SET @perioddate=str_to_date('2018-10-13','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-11-13'; SET @perioddate=str_to_date('2018-11-13','%Y-%m-%d');</v>
       </c>
       <c r="I14" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-13;2018-10-13.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-13;2018-11-13.csv'</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1415,33 +1415,33 @@
         <v>16</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-10-14</v>
+        <v>2018-11-14</v>
       </c>
       <c r="E15" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-10-14;2018-10-14.csv</v>
+        <v>2018-11-14;2018-11-14.csv</v>
       </c>
       <c r="F15" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H15" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-10-14'; SET @perioddate=str_to_date('2018-10-14','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-11-14'; SET @perioddate=str_to_date('2018-11-14','%Y-%m-%d');</v>
       </c>
       <c r="I15" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-14;2018-10-14.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-14;2018-11-14.csv'</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1449,33 +1449,33 @@
         <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-10-15</v>
+        <v>2018-11-15</v>
       </c>
       <c r="E16" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-10-15;2018-10-15.csv</v>
+        <v>2018-11-15;2018-11-15.csv</v>
       </c>
       <c r="F16" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H16" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-10-15'; SET @perioddate=str_to_date('2018-10-15','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-11-15'; SET @perioddate=str_to_date('2018-11-15','%Y-%m-%d');</v>
       </c>
       <c r="I16" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-15;2018-10-15.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-15;2018-11-15.csv'</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1483,33 +1483,33 @@
         <v>18</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-10-16</v>
+        <v>2018-11-16</v>
       </c>
       <c r="E17" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-10-16;2018-10-16.csv</v>
+        <v>2018-11-16;2018-11-16.csv</v>
       </c>
       <c r="F17" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H17" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-10-16'; SET @perioddate=str_to_date('2018-10-16','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-11-16'; SET @perioddate=str_to_date('2018-11-16','%Y-%m-%d');</v>
       </c>
       <c r="I17" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-16;2018-10-16.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-16;2018-11-16.csv'</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1517,33 +1517,33 @@
         <v>19</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-10-17</v>
+        <v>2018-11-17</v>
       </c>
       <c r="E18" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-10-17;2018-10-17.csv</v>
+        <v>2018-11-17;2018-11-17.csv</v>
       </c>
       <c r="F18" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H18" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-10-17'; SET @perioddate=str_to_date('2018-10-17','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-11-17'; SET @perioddate=str_to_date('2018-11-17','%Y-%m-%d');</v>
       </c>
       <c r="I18" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-17;2018-10-17.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-17;2018-11-17.csv'</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1551,33 +1551,33 @@
         <v>20</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-10-18</v>
+        <v>2018-11-18</v>
       </c>
       <c r="E19" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-10-18;2018-10-18.csv</v>
+        <v>2018-11-18;2018-11-18.csv</v>
       </c>
       <c r="F19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H19" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-10-18'; SET @perioddate=str_to_date('2018-10-18','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-11-18'; SET @perioddate=str_to_date('2018-11-18','%Y-%m-%d');</v>
       </c>
       <c r="I19" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-18;2018-10-18.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-18;2018-11-18.csv'</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1585,33 +1585,33 @@
         <v>21</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-10-19</v>
+        <v>2018-11-19</v>
       </c>
       <c r="E20" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-10-19;2018-10-19.csv</v>
+        <v>2018-11-19;2018-11-19.csv</v>
       </c>
       <c r="F20" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H20" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-10-19'; SET @perioddate=str_to_date('2018-10-19','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-11-19'; SET @perioddate=str_to_date('2018-11-19','%Y-%m-%d');</v>
       </c>
       <c r="I20" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-19;2018-10-19.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-19;2018-11-19.csv'</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1619,33 +1619,33 @@
         <v>22</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-10-20</v>
+        <v>2018-11-20</v>
       </c>
       <c r="E21" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-10-20;2018-10-20.csv</v>
+        <v>2018-11-20;2018-11-20.csv</v>
       </c>
       <c r="F21" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H21" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-10-20'; SET @perioddate=str_to_date('2018-10-20','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-11-20'; SET @perioddate=str_to_date('2018-11-20','%Y-%m-%d');</v>
       </c>
       <c r="I21" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-20;2018-10-20.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-20;2018-11-20.csv'</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1653,33 +1653,33 @@
         <v>23</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-10-21</v>
+        <v>2018-11-21</v>
       </c>
       <c r="E22" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-10-21;2018-10-21.csv</v>
+        <v>2018-11-21;2018-11-21.csv</v>
       </c>
       <c r="F22" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H22" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-10-21'; SET @perioddate=str_to_date('2018-10-21','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-11-21'; SET @perioddate=str_to_date('2018-11-21','%Y-%m-%d');</v>
       </c>
       <c r="I22" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-21;2018-10-21.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-21;2018-11-21.csv'</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1687,33 +1687,33 @@
         <v>24</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-10-22</v>
+        <v>2018-11-22</v>
       </c>
       <c r="E23" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-10-22;2018-10-22.csv</v>
+        <v>2018-11-22;2018-11-22.csv</v>
       </c>
       <c r="F23" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H23" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-10-22'; SET @perioddate=str_to_date('2018-10-22','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-11-22'; SET @perioddate=str_to_date('2018-11-22','%Y-%m-%d');</v>
       </c>
       <c r="I23" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-22;2018-10-22.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-22;2018-11-22.csv'</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1721,33 +1721,33 @@
         <v>25</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-10-23</v>
+        <v>2018-11-23</v>
       </c>
       <c r="E24" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-10-23;2018-10-23.csv</v>
+        <v>2018-11-23;2018-11-23.csv</v>
       </c>
       <c r="F24" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H24" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-10-23'; SET @perioddate=str_to_date('2018-10-23','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-11-23'; SET @perioddate=str_to_date('2018-11-23','%Y-%m-%d');</v>
       </c>
       <c r="I24" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-23;2018-10-23.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-23;2018-11-23.csv'</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1755,33 +1755,33 @@
         <v>26</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-10-24</v>
+        <v>2018-11-24</v>
       </c>
       <c r="E25" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-10-24;2018-10-24.csv</v>
+        <v>2018-11-24;2018-11-24.csv</v>
       </c>
       <c r="F25" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H25" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-10-24'; SET @perioddate=str_to_date('2018-10-24','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-11-24'; SET @perioddate=str_to_date('2018-11-24','%Y-%m-%d');</v>
       </c>
       <c r="I25" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-24;2018-10-24.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-24;2018-11-24.csv'</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1789,33 +1789,33 @@
         <v>27</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-10-25</v>
+        <v>2018-11-25</v>
       </c>
       <c r="E26" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-10-25;2018-10-25.csv</v>
+        <v>2018-11-25;2018-11-25.csv</v>
       </c>
       <c r="F26" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H26" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-10-25'; SET @perioddate=str_to_date('2018-10-25','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-11-25'; SET @perioddate=str_to_date('2018-11-25','%Y-%m-%d');</v>
       </c>
       <c r="I26" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-25;2018-10-25.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-25;2018-11-25.csv'</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1823,33 +1823,33 @@
         <v>28</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-10-26</v>
+        <v>2018-11-26</v>
       </c>
       <c r="E27" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-10-26;2018-10-26.csv</v>
+        <v>2018-11-26;2018-11-26.csv</v>
       </c>
       <c r="F27" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H27" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-10-26'; SET @perioddate=str_to_date('2018-10-26','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-11-26'; SET @perioddate=str_to_date('2018-11-26','%Y-%m-%d');</v>
       </c>
       <c r="I27" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-26;2018-10-26.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-26;2018-11-26.csv'</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1857,33 +1857,33 @@
         <v>29</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-10-27</v>
+        <v>2018-11-27</v>
       </c>
       <c r="E28" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-10-27;2018-10-27.csv</v>
+        <v>2018-11-27;2018-11-27.csv</v>
       </c>
       <c r="F28" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H28" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-10-27'; SET @perioddate=str_to_date('2018-10-27','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-11-27'; SET @perioddate=str_to_date('2018-11-27','%Y-%m-%d');</v>
       </c>
       <c r="I28" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-27;2018-10-27.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-27;2018-11-27.csv'</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1891,33 +1891,33 @@
         <v>30</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-10-28</v>
+        <v>2018-11-28</v>
       </c>
       <c r="E29" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-10-28;2018-10-28.csv</v>
+        <v>2018-11-28;2018-11-28.csv</v>
       </c>
       <c r="F29" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H29" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-10-28'; SET @perioddate=str_to_date('2018-10-28','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-11-28'; SET @perioddate=str_to_date('2018-11-28','%Y-%m-%d');</v>
       </c>
       <c r="I29" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-28;2018-10-28.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-28;2018-11-28.csv'</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1925,33 +1925,33 @@
         <v>31</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D30" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-10-29</v>
+        <v>2018-11-29</v>
       </c>
       <c r="E30" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-10-29;2018-10-29.csv</v>
+        <v>2018-11-29;2018-11-29.csv</v>
       </c>
       <c r="F30" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H30" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-10-29'; SET @perioddate=str_to_date('2018-10-29','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-11-29'; SET @perioddate=str_to_date('2018-11-29','%Y-%m-%d');</v>
       </c>
       <c r="I30" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-29;2018-10-29.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-29;2018-11-29.csv'</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1959,33 +1959,33 @@
         <v>32</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D31" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-10-30</v>
+        <v>2018-11-30</v>
       </c>
       <c r="E31" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-10-30;2018-10-30.csv</v>
+        <v>2018-11-30;2018-11-30.csv</v>
       </c>
       <c r="F31" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H31" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-10-30'; SET @perioddate=str_to_date('2018-10-30','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-11-30'; SET @perioddate=str_to_date('2018-11-30','%Y-%m-%d');</v>
       </c>
       <c r="I31" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-30;2018-10-30.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-30;2018-11-30.csv'</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1993,33 +1993,33 @@
         <v>33</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>180</v>
       </c>
       <c r="D32" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2018-10-31</v>
+        <v>2018-11-31</v>
       </c>
       <c r="E32" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>2018-10-31;2018-10-31.csv</v>
+        <v>2018-11-31;2018-11-31.csv</v>
       </c>
       <c r="F32" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/</v>
+        <v>C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H32" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>SET @rundate='2018-10-31'; SET @perioddate=str_to_date('2018-10-31','%Y-%m-%d');</v>
+        <v>SET @rundate='2018-11-31'; SET @perioddate=str_to_date('2018-11-31','%Y-%m-%d');</v>
       </c>
       <c r="I32" s="4" t="str">
         <f t="shared" si="4"/>
-        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201810/2018-10-31;2018-10-31.csv'</v>
+        <v>LOAD DATA LOW_PRIORITY LOCAL INFILE 'C:/ProgramData/MySQL/MySQL Server 5.7/Uploads/ActiveContractsList/201811/2018-11-31;2018-11-31.csv'</v>
       </c>
     </row>
   </sheetData>
